--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/15/seed1/result_data_RandomForest.xlsx
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.883499999999995</v>
+        <v>-6.864000000000001</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.240599999999999</v>
+        <v>-8.191000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -556,10 +556,10 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.4742</v>
+        <v>-8.920899999999993</v>
       </c>
       <c r="E7" t="n">
-        <v>16.72129999999999</v>
+        <v>16.6387</v>
       </c>
     </row>
     <row r="8">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.6395</v>
+        <v>17.7942</v>
       </c>
     </row>
     <row r="13">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.3165</v>
+        <v>16.36110000000001</v>
       </c>
     </row>
     <row r="16">
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.812699999999998</v>
+        <v>-8.862600000000004</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -777,10 +777,10 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.177900000000001</v>
+        <v>-8.444700000000003</v>
       </c>
       <c r="E20" t="n">
-        <v>16.23670000000001</v>
+        <v>16.17470000000001</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>17.33209999999999</v>
+        <v>17.33119999999999</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>17.34209999999999</v>
+        <v>17.3401</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.04119999999999</v>
+        <v>16.12409999999998</v>
       </c>
     </row>
     <row r="24">
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.176799999999995</v>
+        <v>-8.158999999999994</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -930,10 +930,10 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.995400000000001</v>
+        <v>-8.130500000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>16.4749</v>
+        <v>16.54629999999999</v>
       </c>
     </row>
     <row r="30">
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-9.286299999999997</v>
+        <v>-9.197799999999996</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.7542</v>
+        <v>17.5509</v>
       </c>
     </row>
     <row r="35">
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.242899999999997</v>
+        <v>-8.462299999999995</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.3403</v>
+        <v>16.4625</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.48260000000001</v>
+        <v>17.45200000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.63219999999999</v>
+        <v>16.5765</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.5689</v>
+        <v>16.57710000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1219,10 +1219,10 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.552799999999994</v>
+        <v>-7.485599999999993</v>
       </c>
       <c r="E46" t="n">
-        <v>17.2063</v>
+        <v>17.20539999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.6027</v>
+        <v>16.5765</v>
       </c>
     </row>
     <row r="51">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.665300000000002</v>
+        <v>-8.312200000000004</v>
       </c>
       <c r="E51" t="n">
-        <v>16.17459999999998</v>
+        <v>16.4594</v>
       </c>
     </row>
     <row r="52">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.153999999999999</v>
+        <v>-7.087699999999999</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.309900000000001</v>
+        <v>-8.2371</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.181599999999998</v>
+        <v>-8.086499999999999</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.735399999999993</v>
+        <v>-8.93259999999999</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1559,10 +1559,10 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.349800000000003</v>
+        <v>-7.112500000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>16.66660000000001</v>
+        <v>17.07160000000002</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.09740000000002</v>
+        <v>17.14800000000002</v>
       </c>
     </row>
     <row r="68">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.151499999999999</v>
+        <v>-8.257199999999997</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1695,7 +1695,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.340400000000001</v>
+        <v>-8.363100000000005</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.28870000000002</v>
+        <v>18.41120000000002</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.538</v>
+        <v>16.50859999999999</v>
       </c>
     </row>
     <row r="85">
@@ -2001,10 +2001,10 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.8235</v>
+        <v>-6.838699999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>17.5349</v>
+        <v>17.63190000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.73710000000001</v>
+        <v>16.61440000000001</v>
       </c>
     </row>
     <row r="98">
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.603100000000001</v>
+        <v>-8.442399999999999</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
